--- a/5 year data set china export 18-23.xlsx
+++ b/5 year data set china export 18-23.xlsx
@@ -8,38 +8,85 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guiji\Desktop\BF\w2 time series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947D40AB-58E7-4407-AC87-D094A10CC9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E2E53C-D205-4308-96B3-0C7F71B35703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
-    <t>Current Value of Total Exports (Thousand US Dollars)</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Source: from national bureau of statistics in China</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Value in billion dollars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -55,9 +102,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,19 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -378,7 +420,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A61"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -387,30 +429,29 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
-        <v>43344</v>
-      </c>
-      <c r="B2" s="3">
-        <v>226686815</v>
+      <c r="A2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>60</v>
+        <v>226.686815</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -418,17 +459,16 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
-        <v>43374</v>
-      </c>
-      <c r="B3" s="3">
-        <v>217283435</v>
+      <c r="A3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>59</v>
+        <v>217.283435</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -436,17 +476,16 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
-        <v>43405</v>
-      </c>
-      <c r="B4" s="3">
-        <v>227445523</v>
+      <c r="A4" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>58</v>
+        <v>227.44552300000001</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -454,17 +493,16 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
-        <v>43435</v>
-      </c>
-      <c r="B5" s="3">
-        <v>221249124</v>
+      <c r="A5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>57</v>
+        <v>221.24912399999999</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -472,17 +510,16 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
-        <v>43466</v>
-      </c>
-      <c r="B6" s="3">
-        <v>217566642</v>
+      <c r="A6" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>56</v>
+        <v>217.566642</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -490,17 +527,16 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
-        <v>43497</v>
-      </c>
-      <c r="B7" s="3">
-        <v>135200630</v>
+      <c r="A7" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>55</v>
+        <v>135.20062999999999</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -508,17 +544,16 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
-        <v>43525</v>
-      </c>
-      <c r="B8" s="3">
-        <v>198655790</v>
+      <c r="A8" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>54</v>
+        <v>198.65579</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -526,17 +561,16 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
-        <v>43556</v>
-      </c>
-      <c r="B9" s="3">
-        <v>193481260</v>
+      <c r="A9" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>53</v>
+        <v>193.48125999999999</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -544,17 +578,16 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
-        <v>43586</v>
-      </c>
-      <c r="B10" s="3">
-        <v>213845417</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>52</v>
+        <v>213.845417</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -562,17 +595,16 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
-        <v>43617</v>
-      </c>
-      <c r="B11" s="3">
-        <v>212835863</v>
+      <c r="A11" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>51</v>
+        <v>212.83586299999999</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -580,17 +612,16 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
-        <v>43647</v>
-      </c>
-      <c r="B12" s="3">
-        <v>221553908</v>
+      <c r="A12" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>50</v>
+        <v>221.55390800000001</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -598,17 +629,16 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
-        <v>43678</v>
-      </c>
-      <c r="B13" s="3">
-        <v>214786135</v>
+      <c r="A13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>49</v>
+        <v>214.786135</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -616,17 +646,16 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
-        <v>43709</v>
-      </c>
-      <c r="B14" s="3">
-        <v>218123102</v>
+      <c r="A14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>48</v>
+        <v>218.12310199999999</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -634,17 +663,16 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
-        <v>43739</v>
-      </c>
-      <c r="B15" s="3">
-        <v>212916095</v>
+      <c r="A15" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>47</v>
+        <v>212.91609500000001</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -652,17 +680,16 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="5">
-        <v>43770</v>
-      </c>
-      <c r="B16" s="3">
-        <v>221337434</v>
+      <c r="A16" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>46</v>
+        <v>221.337434</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -670,17 +697,16 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
-        <v>43800</v>
-      </c>
-      <c r="B17" s="3">
-        <v>238267589</v>
+      <c r="A17" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>45</v>
+        <v>238.26758899999999</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -688,17 +714,16 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="5">
-        <v>43831</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
-        <v>44</v>
-      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -706,17 +731,16 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="5">
-        <v>43862</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="C19" s="2">
-        <v>43</v>
-      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -724,17 +748,16 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="5">
-        <v>43891</v>
-      </c>
-      <c r="B20" s="3">
-        <v>185146228</v>
+      <c r="A20" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="2">
-        <v>42</v>
+        <v>185.14622800000001</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -742,17 +765,16 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="5">
-        <v>43922</v>
-      </c>
-      <c r="B21" s="3">
-        <v>200233629</v>
+      <c r="A21" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
       </c>
       <c r="C21" s="2">
-        <v>41</v>
+        <v>200.23362900000001</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -760,17 +782,16 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="5">
-        <v>43952</v>
-      </c>
-      <c r="B22" s="3">
-        <v>206812825</v>
+      <c r="A22" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="2">
-        <v>40</v>
+        <v>206.812825</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -778,17 +799,16 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="5">
-        <v>43983</v>
-      </c>
-      <c r="B23" s="3">
-        <v>213574174</v>
+      <c r="A23" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>39</v>
+        <v>213.574174</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -796,17 +816,16 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="5">
-        <v>44013</v>
-      </c>
-      <c r="B24" s="3">
-        <v>237631279</v>
+      <c r="A24" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
       </c>
       <c r="C24" s="2">
-        <v>38</v>
+        <v>237.63127900000001</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -814,17 +833,16 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="5">
-        <v>44044</v>
-      </c>
-      <c r="B25" s="3">
-        <v>235259186</v>
+      <c r="A25" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
       </c>
       <c r="C25" s="2">
-        <v>37</v>
+        <v>235.259186</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -832,17 +850,16 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="5">
-        <v>44075</v>
-      </c>
-      <c r="B26" s="3">
-        <v>239757675</v>
+      <c r="A26" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
       </c>
       <c r="C26" s="2">
-        <v>36</v>
+        <v>239.75767500000001</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -850,17 +867,16 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="5">
-        <v>44105</v>
-      </c>
-      <c r="B27" s="3">
-        <v>237182561</v>
+      <c r="A27" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>35</v>
+        <v>237.18256099999999</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -868,17 +884,16 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="5">
-        <v>44136</v>
-      </c>
-      <c r="B28" s="3">
-        <v>268074093</v>
+      <c r="A28" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>34</v>
+        <v>268.074093</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -886,17 +901,16 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="5">
-        <v>44166</v>
-      </c>
-      <c r="B29" s="3">
-        <v>281927726</v>
+      <c r="A29" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>33</v>
+        <v>281.92772600000001</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -904,17 +918,16 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="5">
-        <v>44197</v>
-      </c>
-      <c r="B30" s="3">
-        <v>264018839</v>
+      <c r="A30" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
       </c>
       <c r="C30" s="2">
-        <v>32</v>
+        <v>264.01883900000001</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -922,17 +935,16 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="5">
-        <v>44228</v>
-      </c>
-      <c r="B31" s="3">
-        <v>204855176</v>
+      <c r="A31" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="2">
-        <v>31</v>
+        <v>204.855176</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -940,17 +952,16 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="5">
-        <v>44256</v>
-      </c>
-      <c r="B32" s="3">
-        <v>241134158</v>
+      <c r="A32" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
       </c>
       <c r="C32" s="2">
-        <v>30</v>
+        <v>241.13415800000001</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -958,17 +969,16 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="5">
-        <v>44287</v>
-      </c>
-      <c r="B33" s="3">
-        <v>263923793</v>
+      <c r="A33" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
       </c>
       <c r="C33" s="2">
-        <v>29</v>
+        <v>263.92379299999999</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -976,17 +986,16 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="5">
-        <v>44317</v>
-      </c>
-      <c r="B34" s="3">
-        <v>263922347</v>
+      <c r="A34" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
       </c>
       <c r="C34" s="2">
-        <v>28</v>
+        <v>263.922347</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -994,17 +1003,16 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="5">
-        <v>44348</v>
-      </c>
-      <c r="B35" s="3">
-        <v>281417178</v>
+      <c r="A35" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="2">
-        <v>27</v>
+        <v>281.41717799999998</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1012,17 +1020,16 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="5">
-        <v>44378</v>
-      </c>
-      <c r="B36" s="3">
-        <v>282662343</v>
+      <c r="A36" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
       </c>
       <c r="C36" s="2">
-        <v>26</v>
+        <v>282.66234300000002</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1030,17 +1037,16 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="5">
-        <v>44409</v>
-      </c>
-      <c r="B37" s="3">
-        <v>294315479</v>
+      <c r="A37" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
       </c>
       <c r="C37" s="2">
-        <v>25</v>
+        <v>294.31547899999998</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1048,17 +1054,16 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="5">
-        <v>44440</v>
-      </c>
-      <c r="B38" s="3">
-        <v>305737341</v>
+      <c r="A38" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
       </c>
       <c r="C38" s="2">
-        <v>24</v>
+        <v>305.73734100000001</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1066,17 +1071,16 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="5">
-        <v>44470</v>
-      </c>
-      <c r="B39" s="3">
-        <v>300221418</v>
+      <c r="A39" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
       </c>
       <c r="C39" s="2">
-        <v>23</v>
+        <v>300.22141800000003</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1084,17 +1088,16 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="5">
-        <v>44501</v>
-      </c>
-      <c r="B40" s="3">
-        <v>325525287</v>
+      <c r="A40" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>22</v>
+        <v>325.52528699999999</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1102,17 +1105,16 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="5">
-        <v>44531</v>
-      </c>
-      <c r="B41" s="3">
-        <v>340498780</v>
+      <c r="A41" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="2">
-        <v>21</v>
+        <v>340.49878000000001</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1120,17 +1122,16 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="5">
-        <v>44562</v>
-      </c>
-      <c r="B42" s="3">
-        <v>327285953</v>
+      <c r="A42" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
       </c>
       <c r="C42" s="2">
-        <v>20</v>
+        <v>327.28595300000001</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1138,17 +1139,16 @@
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="5">
-        <v>44593</v>
-      </c>
-      <c r="B43" s="3">
-        <v>217416504</v>
+      <c r="A43" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
       </c>
       <c r="C43" s="2">
-        <v>19</v>
+        <v>217.416504</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1156,17 +1156,16 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="5">
-        <v>44621</v>
-      </c>
-      <c r="B44" s="3">
-        <v>276084613</v>
+      <c r="A44" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
       </c>
       <c r="C44" s="2">
-        <v>18</v>
+        <v>276.08461299999999</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1174,17 +1173,16 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="5">
-        <v>44652</v>
-      </c>
-      <c r="B45" s="3">
-        <v>273619664</v>
+      <c r="A45" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
       </c>
       <c r="C45" s="2">
-        <v>17</v>
+        <v>273.619664</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1192,17 +1190,16 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="5">
-        <v>44682</v>
-      </c>
-      <c r="B46" s="3">
-        <v>308244886</v>
+      <c r="A46" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
       </c>
       <c r="C46" s="2">
-        <v>16</v>
+        <v>308.24488600000001</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1210,17 +1207,16 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="5">
-        <v>44713</v>
-      </c>
-      <c r="B47" s="3">
-        <v>331264197</v>
+      <c r="A47" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
       </c>
       <c r="C47" s="2">
-        <v>15</v>
+        <v>331.26419700000002</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1228,17 +1224,16 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="5">
-        <v>44743</v>
-      </c>
-      <c r="B48" s="3">
-        <v>332964256</v>
+      <c r="A48" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
       </c>
       <c r="C48" s="2">
-        <v>14</v>
+        <v>332.96425599999998</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1246,17 +1241,16 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="5">
-        <v>44774</v>
-      </c>
-      <c r="B49" s="3">
-        <v>314920505</v>
+      <c r="A49" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
       </c>
       <c r="C49" s="2">
-        <v>13</v>
+        <v>314.92050499999999</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1264,17 +1258,16 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="5">
-        <v>44805</v>
-      </c>
-      <c r="B50" s="3">
-        <v>322755333</v>
+      <c r="A50" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
       </c>
       <c r="C50" s="2">
-        <v>12</v>
+        <v>322.75533300000001</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -1282,17 +1275,16 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="5">
-        <v>44835</v>
-      </c>
-      <c r="B51" s="3">
-        <v>298371747</v>
+      <c r="A51" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
       </c>
       <c r="C51" s="2">
-        <v>11</v>
+        <v>298.37174700000003</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -1300,17 +1292,16 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="5">
-        <v>44866</v>
-      </c>
-      <c r="B52" s="3">
-        <v>295500770</v>
+      <c r="A52" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
       </c>
       <c r="C52" s="2">
-        <v>10</v>
+        <v>295.50076999999999</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -1318,17 +1309,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="5">
-        <v>44896</v>
-      </c>
-      <c r="B53" s="3">
-        <v>306078766</v>
+      <c r="A53" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="2">
-        <v>9</v>
+        <v>306.07876599999997</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -1336,17 +1326,16 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="5">
-        <v>44927</v>
-      </c>
-      <c r="B54" s="3">
-        <v>292275545</v>
+      <c r="A54" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
       </c>
       <c r="C54" s="2">
-        <v>8</v>
+        <v>292.27554500000002</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -1354,17 +1343,16 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="5">
-        <v>44958</v>
-      </c>
-      <c r="B55" s="3">
-        <v>214025811</v>
+      <c r="A55" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55" s="2">
-        <v>7</v>
+        <v>214.025811</v>
       </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -1372,17 +1360,16 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="5">
-        <v>44986</v>
-      </c>
-      <c r="B56" s="3">
-        <v>315589337</v>
+      <c r="A56" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
       </c>
       <c r="C56" s="2">
-        <v>6</v>
+        <v>315.589337</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -1390,17 +1377,16 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="5">
-        <v>45017</v>
-      </c>
-      <c r="B57" s="3">
-        <v>295417981</v>
+      <c r="A57" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
       </c>
       <c r="C57" s="2">
-        <v>5</v>
+        <v>295.417981</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -1408,17 +1394,16 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="5">
-        <v>45047</v>
-      </c>
-      <c r="B58" s="3">
-        <v>283484005</v>
+      <c r="A58" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
       </c>
       <c r="C58" s="2">
-        <v>4</v>
+        <v>283.48400500000002</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -1426,17 +1411,16 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="5">
-        <v>45078</v>
-      </c>
-      <c r="B59" s="3">
-        <v>285321600</v>
+      <c r="A59" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
       </c>
       <c r="C59" s="2">
-        <v>3</v>
+        <v>285.32159999999999</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1444,17 +1428,16 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="5">
-        <v>45108</v>
-      </c>
-      <c r="B60" s="3">
-        <v>281755999</v>
+      <c r="A60" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
       </c>
       <c r="C60" s="2">
-        <v>2</v>
+        <v>281.75599899999997</v>
       </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -1462,17 +1445,16 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="5">
-        <v>45139</v>
-      </c>
-      <c r="B61" s="3">
-        <v>284790965</v>
+      <c r="A61" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
       </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>284.79096500000003</v>
       </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1483,6 +1465,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C61">
     <sortCondition descending="1" ref="C2:C61"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>